--- a/doc/Arimbi consistency check v2.xlsx
+++ b/doc/Arimbi consistency check v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KajianFPP\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F12476-1C2A-4309-8434-5609FE161634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB2F7F-8F29-428B-B1CE-C9C2CD9E1037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="12346" activeTab="1" xr2:uid="{1BB81A35-36A2-4EE1-AD8B-2B9573987209}"/>
+    <workbookView xWindow="40920" yWindow="4560" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{1BB81A35-36A2-4EE1-AD8B-2B9573987209}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="47">
   <si>
     <t>Masukkan skenario awal disini</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>FFR</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -730,36 +736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,6 +757,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,6 +772,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2 2 2 2 2 2" xfId="2" xr:uid="{D6700EC5-1D3B-42B3-997C-0DB499954BCB}"/>
@@ -797,147 +803,7 @@
     <cellStyle name="Normal 6 2 2 2 2 3 2" xfId="1" xr:uid="{7F8016BD-7324-48EF-AC8C-F7FCB1BFB934}"/>
     <cellStyle name="Normal 6 2 3 2 3 2" xfId="3" xr:uid="{5C682CED-AA97-474D-AE3A-2E9751F06851}"/>
   </cellStyles>
-  <dxfs count="138">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="118">
     <dxf>
       <fill>
         <patternFill>
@@ -2080,7 +1946,7 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView topLeftCell="G31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T58" sqref="T58"/>
+      <selection activeCell="AF58" sqref="AF58:AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2105,25 +1971,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="46"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2917,44 +2783,44 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="Q20" s="46" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="Q20" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
     </row>
     <row r="21" spans="1:32" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A21" s="46"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2988,7 +2854,7 @@
       <c r="L21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="46"/>
+      <c r="Q21" s="53"/>
       <c r="R21" s="1" t="s">
         <v>3</v>
       </c>
@@ -4586,44 +4452,44 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="Q39" s="46" t="s">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="Q39" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R39" s="47" t="s">
+      <c r="R39" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
     </row>
     <row r="40" spans="1:32" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A40" s="46"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
@@ -4657,7 +4523,7 @@
       <c r="L40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="46"/>
+      <c r="Q40" s="53"/>
       <c r="R40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6334,154 +6200,154 @@
     <mergeCell ref="R20:AE20"/>
   </mergeCells>
   <conditionalFormatting sqref="Z42:Z45">
-    <cfRule type="expression" dxfId="137" priority="37">
+    <cfRule type="expression" dxfId="117" priority="37">
       <formula>Z42="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="38">
+    <cfRule type="expression" dxfId="116" priority="38">
       <formula>Z42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z47:Z50">
-    <cfRule type="expression" dxfId="135" priority="35">
+    <cfRule type="expression" dxfId="115" priority="35">
       <formula>Z47="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="36">
+    <cfRule type="expression" dxfId="114" priority="36">
       <formula>Z47="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:AD50">
-    <cfRule type="expression" dxfId="133" priority="33">
+    <cfRule type="expression" dxfId="113" priority="33">
       <formula>AD47="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="34">
+    <cfRule type="expression" dxfId="112" priority="34">
       <formula>AD47="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z52:Z55">
-    <cfRule type="expression" dxfId="131" priority="31">
+    <cfRule type="expression" dxfId="111" priority="31">
       <formula>Z52="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="32">
+    <cfRule type="expression" dxfId="110" priority="32">
       <formula>Z52="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD52:AD55">
-    <cfRule type="expression" dxfId="129" priority="29">
+    <cfRule type="expression" dxfId="109" priority="29">
       <formula>AD52="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="30">
+    <cfRule type="expression" dxfId="108" priority="30">
       <formula>AD52="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42:AD45">
-    <cfRule type="expression" dxfId="127" priority="27">
+    <cfRule type="expression" dxfId="107" priority="27">
       <formula>AD42="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="28">
+    <cfRule type="expression" dxfId="106" priority="28">
       <formula>AD42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF52:AF55">
-    <cfRule type="expression" dxfId="125" priority="25">
+    <cfRule type="expression" dxfId="105" priority="25">
       <formula>AF52="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="26">
+    <cfRule type="expression" dxfId="104" priority="26">
       <formula>AF52="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U50">
-    <cfRule type="expression" dxfId="123" priority="23">
+    <cfRule type="expression" dxfId="103" priority="23">
       <formula>U47="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="24">
+    <cfRule type="expression" dxfId="102" priority="24">
       <formula>U47="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52:U55">
-    <cfRule type="expression" dxfId="121" priority="21">
+    <cfRule type="expression" dxfId="101" priority="21">
       <formula>U52="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="22">
+    <cfRule type="expression" dxfId="100" priority="22">
       <formula>U52="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF47:AF50">
-    <cfRule type="expression" dxfId="119" priority="19">
+    <cfRule type="expression" dxfId="99" priority="19">
       <formula>AF47="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="20">
+    <cfRule type="expression" dxfId="98" priority="20">
       <formula>AF47="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF42:AF45">
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="97" priority="17">
       <formula>AF42="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="18">
+    <cfRule type="expression" dxfId="96" priority="18">
       <formula>AF42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28:U31">
-    <cfRule type="expression" dxfId="115" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>U28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>U28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:U36">
-    <cfRule type="expression" dxfId="113" priority="13">
+    <cfRule type="expression" dxfId="93" priority="13">
       <formula>U33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="14">
+    <cfRule type="expression" dxfId="92" priority="14">
       <formula>U33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z28:Z31">
-    <cfRule type="expression" dxfId="111" priority="11">
+    <cfRule type="expression" dxfId="91" priority="11">
       <formula>Z28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="90" priority="12">
       <formula>Z28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="expression" dxfId="109" priority="9">
+    <cfRule type="expression" dxfId="89" priority="9">
       <formula>Z33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="10">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>Z33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28:AD31">
-    <cfRule type="expression" dxfId="107" priority="7">
+    <cfRule type="expression" dxfId="87" priority="7">
       <formula>AD28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="8">
+    <cfRule type="expression" dxfId="86" priority="8">
       <formula>AD28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AD36">
-    <cfRule type="expression" dxfId="105" priority="5">
+    <cfRule type="expression" dxfId="85" priority="5">
       <formula>AD33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="84" priority="6">
       <formula>AD33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33:AF36">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="83" priority="3">
       <formula>AF33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>AF33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF28:AF31">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>AF28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>AF28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6492,10 +6358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64013F2-77E0-4CCA-B69B-9910333E9178}">
-  <dimension ref="A2:AK40"/>
+  <dimension ref="A2:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6503,42 +6369,43 @@
     <col min="1" max="1" width="15.703125" customWidth="1"/>
     <col min="6" max="6" width="7.5859375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="35" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="16.7" x14ac:dyDescent="0.5">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="46"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7108,39 +6975,39 @@
       <c r="N17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="P17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q17" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="53"/>
-      <c r="AD17" s="54" t="s">
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="65"/>
+      <c r="AD17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="49"/>
+      <c r="AE17" s="63"/>
       <c r="AF17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AG17" s="55" t="s">
+      <c r="AG17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="63" t="s">
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="65"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="57"/>
     </row>
     <row r="18" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
@@ -7182,7 +7049,7 @@
       <c r="N18" s="9">
         <v>0</v>
       </c>
-      <c r="P18" s="51"/>
+      <c r="P18" s="61"/>
       <c r="Q18" s="1" t="s">
         <v>44</v>
       </c>
@@ -7231,16 +7098,16 @@
       <c r="AG18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AH18" s="56" t="s">
+      <c r="AH18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AI18" s="62" t="s">
+      <c r="AI18" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AJ18" s="62" t="s">
+      <c r="AJ18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AK18" s="62" t="s">
+      <c r="AK18" s="52" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7292,47 +7159,47 @@
         <v>0</v>
       </c>
       <c r="R19" s="17">
-        <f>B25-B5</f>
+        <f t="shared" ref="R19:R34" si="0">B25-B5</f>
         <v>0</v>
       </c>
       <c r="S19" s="17">
-        <f>C25-C5</f>
+        <f t="shared" ref="S19:S34" si="1">C25-C5</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <f>D25-D5</f>
+        <f t="shared" ref="T19:T34" si="2">D25-D5</f>
         <v>0</v>
       </c>
       <c r="U19" s="17">
-        <f>E25-E5</f>
+        <f t="shared" ref="U19:U34" si="3">E25-E5</f>
         <v>0</v>
       </c>
       <c r="V19" s="17">
-        <f>F25-F5</f>
+        <f t="shared" ref="V19:V34" si="4">F25-F5</f>
         <v>0</v>
       </c>
       <c r="W19" s="17">
-        <f>G25-G5</f>
+        <f t="shared" ref="W19:W34" si="5">G25-G5</f>
         <v>0</v>
       </c>
       <c r="X19" s="17">
-        <f>H25-H5</f>
+        <f t="shared" ref="X19:X34" si="6">H25-H5</f>
         <v>0</v>
       </c>
       <c r="Y19" s="17">
-        <f>I25-I5</f>
+        <f t="shared" ref="Y19:Y34" si="7">I25-I5</f>
         <v>0</v>
       </c>
       <c r="Z19" s="17">
-        <f>J25-J5</f>
+        <f t="shared" ref="Z19:Z34" si="8">J25-J5</f>
         <v>0</v>
       </c>
       <c r="AA19" s="17">
-        <f>K25-K5</f>
+        <f t="shared" ref="AA19:AA34" si="9">K25-K5</f>
         <v>0</v>
       </c>
       <c r="AB19" s="30">
-        <f>L25-L5</f>
+        <f t="shared" ref="AB19:AB34" si="10">L25-L5</f>
         <v>0</v>
       </c>
       <c r="AD19" s="24" t="str">
@@ -7351,16 +7218,16 @@
         <f>IF(AND(T19=0,AB19=0),"OK",IF(AND(T19&lt;0,AB19&gt;0),"OK",IF(AND(T19&gt;0,AB19&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
-      <c r="AH19" s="57" t="str">
+      <c r="AH19" s="47" t="str">
         <f>IF(AND(T19=0,AA19+AB19=0),"OK",IF(AND(T19&lt;0,AA19+AB19&gt;0),"OK",IF(AND(T19&gt;0,AA19+AB19&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
-      <c r="AI19" s="60" t="str">
+      <c r="AI19" s="50" t="str">
         <f>IF(AND(Q19=0,T19=0),"OK",IF(AND(Q19&lt;0,T19&gt;0),"OK",IF(AND(Q19&gt;0,T19&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
-      <c r="AJ19" s="60" t="str">
-        <f t="shared" ref="AJ19:AJ34" si="0">IF(AND(T19=0,W19=0),"OK",IF(AND(T19&lt;0,W19&gt;0),"OK",IF(AND(T19&gt;0,W19&lt;0),"OK","CHECK")))</f>
+      <c r="AJ19" s="50" t="str">
+        <f t="shared" ref="AJ19:AJ34" si="11">IF(AND(T19=0,W19=0),"OK",IF(AND(T19&lt;0,W19&gt;0),"OK",IF(AND(T19&gt;0,W19&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
       <c r="AK19" s="20" t="str">
@@ -7412,83 +7279,83 @@
         <v>14</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ref="Q20:Q34" si="1">N26-N6</f>
+        <f t="shared" ref="Q20:Q34" si="12">N26-N6</f>
         <v>0</v>
       </c>
       <c r="R20" s="18">
-        <f>B26-B6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S20" s="18">
-        <f>C26-C6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="13">
-        <f>D26-D6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="33">
-        <f>E26-E6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V20" s="18" t="e">
-        <f>F26-F6</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W20" s="33">
-        <f>G26-G6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X20" s="18">
-        <f>H26-H6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y20" s="18">
-        <f>I26-I6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z20" s="18">
-        <f>J26-J6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA20" s="18">
-        <f>K26-K6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB20" s="32">
-        <f>L26-L6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD20" s="25" t="str">
-        <f t="shared" ref="AD20:AD34" si="2">IF(AND(W20&gt;=0,X20&gt;=0),"OK",IF(AND(W20&lt;0,X20&lt;0),"OK","CHECK"))</f>
+        <f t="shared" ref="AD20:AD34" si="13">IF(AND(W20&gt;=0,X20&gt;=0),"OK",IF(AND(W20&lt;0,X20&lt;0),"OK","CHECK"))</f>
         <v>OK</v>
       </c>
       <c r="AE20" s="21" t="str">
-        <f t="shared" ref="AE20:AE33" si="3">IF(AND(W20=0,AA20=0),"OK",IF(AND(W20&lt;0,AA20&gt;0),"OK",IF(AND(W20&gt;0,AA20&lt;0),"OK","CHECK")))</f>
+        <f t="shared" ref="AE20:AE33" si="14">IF(AND(W20=0,AA20=0),"OK",IF(AND(W20&lt;0,AA20&gt;0),"OK",IF(AND(W20&gt;0,AA20&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
       <c r="AF20" s="21" t="str">
-        <f t="shared" ref="AF20:AF33" si="4">IF(AND(U20&gt;=0,T20&gt;=0),"OK",IF(AND(U20&lt;0,T20&lt;0),"OK","CHECK"))</f>
+        <f t="shared" ref="AF20:AF33" si="15">IF(AND(U20&gt;=0,T20&gt;=0),"OK",IF(AND(U20&lt;0,T20&lt;0),"OK","CHECK"))</f>
         <v>OK</v>
       </c>
       <c r="AG20" s="21" t="str">
-        <f t="shared" ref="AG20:AG34" si="5">IF(AND(T20=0,AB20=0),"OK",IF(AND(T20&lt;0,AB20&gt;0),"OK",IF(AND(T20&gt;0,AB20&lt;0),"OK","CHECK")))</f>
-        <v>OK</v>
-      </c>
-      <c r="AH20" s="58" t="str">
-        <f t="shared" ref="AH20:AH34" si="6">IF(AND(T20=0,AA20+AB20=0),"OK",IF(AND(T20&lt;0,AA20+AB20&gt;0),"OK",IF(AND(T20&gt;0,AA20+AB20&lt;0),"OK","CHECK")))</f>
-        <v>OK</v>
-      </c>
-      <c r="AI20" s="61" t="str">
-        <f t="shared" ref="AI20:AI34" si="7">IF(AND(Q20=0,T20=0),"OK",IF(AND(Q20&lt;0,T20&gt;0),"OK",IF(AND(Q20&gt;0,T20&lt;0),"OK","CHECK")))</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ20" s="61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG20:AG34" si="16">IF(AND(T20=0,AB20=0),"OK",IF(AND(T20&lt;0,AB20&gt;0),"OK",IF(AND(T20&gt;0,AB20&lt;0),"OK","CHECK")))</f>
+        <v>OK</v>
+      </c>
+      <c r="AH20" s="48" t="str">
+        <f t="shared" ref="AH20:AH34" si="17">IF(AND(T20=0,AA20+AB20=0),"OK",IF(AND(T20&lt;0,AA20+AB20&gt;0),"OK",IF(AND(T20&gt;0,AA20+AB20&lt;0),"OK","CHECK")))</f>
+        <v>OK</v>
+      </c>
+      <c r="AI20" s="51" t="str">
+        <f t="shared" ref="AI20:AI34" si="18">IF(AND(Q20=0,T20=0),"OK",IF(AND(Q20&lt;0,T20&gt;0),"OK",IF(AND(Q20&gt;0,T20&lt;0),"OK","CHECK")))</f>
+        <v>OK</v>
+      </c>
+      <c r="AJ20" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK20" s="21" t="str">
-        <f t="shared" ref="AK20:AK34" si="8">IF(AND(W20=0,AA20=0),"OK",IF(AND(W20&lt;0,AA20&gt;0),"OK",IF(AND(W20&gt;0,AA20&lt;0),"OK","CHECK")))</f>
+        <f t="shared" ref="AK20:AK34" si="19">IF(AND(W20=0,AA20=0),"OK",IF(AND(W20&lt;0,AA20&gt;0),"OK",IF(AND(W20&gt;0,AA20&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
     </row>
@@ -7497,286 +7364,286 @@
         <v>16</v>
       </c>
       <c r="Q21" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="18">
-        <f>B27-B7</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="18">
-        <f>C27-C7</f>
-        <v>0</v>
-      </c>
       <c r="T21" s="34">
-        <f>D27-D7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="18">
-        <f>E27-E7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V21" s="18" t="e">
-        <f>F27-F7</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W21" s="18">
-        <f>G27-G7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X21" s="18">
-        <f>H27-H7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y21" s="18">
-        <f>I27-I7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z21" s="18">
-        <f>J27-J7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA21" s="18">
-        <f>K27-K7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB21" s="32">
-        <f>L27-L7</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD21" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE21" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF21" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG21" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH21" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI21" s="61" t="str">
-        <f t="shared" si="7"/>
-        <v>OK</v>
-      </c>
-      <c r="AJ21" s="61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH21" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI21" s="51" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="AJ21" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK21" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="16.7" x14ac:dyDescent="0.5">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
       <c r="P22" s="31" t="s">
         <v>17</v>
       </c>
       <c r="Q22" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="18">
-        <f>B28-B8</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="18">
-        <f>C28-C8</f>
-        <v>0</v>
-      </c>
       <c r="T22" s="13">
-        <f>D28-D8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="18">
-        <f>E28-E8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V22" s="18" t="e">
-        <f>F28-F8</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W22" s="18">
-        <f>G28-G8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X22" s="18">
-        <f>H28-H8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y22" s="18">
-        <f>I28-I8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z22" s="18">
-        <f>J28-J8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA22" s="18">
-        <f>K28-K8</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB22" s="32">
-        <f>L28-L8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD22" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE22" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF22" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG22" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH22" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI22" s="61" t="str">
-        <f t="shared" si="7"/>
-        <v>OK</v>
-      </c>
-      <c r="AJ22" s="61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH22" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI22" s="51" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="AJ22" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK22" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="20.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
       <c r="P23" s="31" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="18">
-        <f>B29-B9</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="18">
-        <f>C29-C9</f>
-        <v>0</v>
-      </c>
       <c r="T23" s="13">
-        <f>D29-D9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="18">
-        <f>E29-E9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V23" s="18" t="e">
-        <f>F29-F9</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W23" s="18">
-        <f>G29-G9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X23" s="18">
-        <f>H29-H9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y23" s="18">
-        <f>I29-I9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z23" s="18">
-        <f>J29-J9</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA23" s="18">
-        <f>K29-K9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB23" s="32">
-        <f>L29-L9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD23" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE23" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF23" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG23" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH23" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI23" s="61" t="str">
-        <f t="shared" si="7"/>
-        <v>OK</v>
-      </c>
-      <c r="AJ23" s="61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH23" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI23" s="51" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="AJ23" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK23" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="16.7" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -7817,83 +7684,83 @@
         <v>2021</v>
       </c>
       <c r="Q24" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R24" s="17">
-        <f>B30-B10</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="17">
-        <f>C30-C10</f>
-        <v>0</v>
-      </c>
       <c r="T24" s="4">
-        <f>D30-D10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="17">
-        <f>E30-E10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V24" s="17" t="e">
-        <f>F30-F10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W24" s="17">
-        <f>G30-G10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X24" s="17">
-        <f>H30-H10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y24" s="17">
-        <f>I30-I10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z24" s="17">
-        <f>J30-J10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA24" s="17">
-        <f>K30-K10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB24" s="30">
-        <f>L30-L10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD24" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE24" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF24" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG24" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH24" s="57" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI24" s="60" t="str">
-        <f t="shared" si="7"/>
-        <v>OK</v>
-      </c>
-      <c r="AJ24" s="60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH24" s="47" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI24" s="50" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="AJ24" s="50" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK24" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -7941,83 +7808,83 @@
         <v>19</v>
       </c>
       <c r="Q25" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="18">
-        <f>B31-B11</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="18">
-        <f>C31-C11</f>
-        <v>0</v>
-      </c>
       <c r="T25" s="35">
-        <f>D31-D11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="18">
-        <f>E31-E11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25" s="18" t="e">
-        <f>F31-F11</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W25" s="18">
-        <f>G31-G11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X25" s="18">
-        <f>H31-H11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y25" s="18">
-        <f>I31-I11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z25" s="18">
-        <f>J31-J11</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA25" s="18">
-        <f>K31-K11</f>
+        <f t="shared" si="9"/>
         <v>-1.8717469809548248E-3</v>
       </c>
       <c r="AB25" s="32">
-        <f>L31-L11</f>
+        <f t="shared" si="10"/>
         <v>2.4551078595980158E-3</v>
       </c>
       <c r="AD25" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE25" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>CHECK</v>
       </c>
       <c r="AF25" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG25" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>CHECK</v>
       </c>
-      <c r="AH25" s="58" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH25" s="48" t="str">
+        <f t="shared" si="17"/>
         <v>CHECK</v>
       </c>
-      <c r="AI25" s="61" t="str">
-        <f t="shared" si="7"/>
-        <v>OK</v>
-      </c>
-      <c r="AJ25" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AI25" s="51" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="AJ25" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK25" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>CHECK</v>
       </c>
     </row>
@@ -8065,83 +7932,83 @@
         <v>20</v>
       </c>
       <c r="Q26" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="18">
-        <f>B32-B12</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="18">
-        <f>C32-C12</f>
-        <v>0</v>
-      </c>
       <c r="T26" s="34">
-        <f>D32-D12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="18">
-        <f>E32-E12</f>
+        <f t="shared" si="3"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="V26" s="18" t="e">
-        <f>F32-F12</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W26" s="18">
-        <f>G32-G12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X26" s="18">
-        <f>H32-H12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y26" s="18">
-        <f>I32-I12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z26" s="18">
-        <f>J32-J12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA26" s="18">
-        <f>K32-K12</f>
+        <f t="shared" si="9"/>
         <v>1.419288610950975E-3</v>
       </c>
       <c r="AB26" s="32">
-        <f>L32-L12</f>
+        <f t="shared" si="10"/>
         <v>-3.344025190983313E-4</v>
       </c>
       <c r="AD26" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE26" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>CHECK</v>
       </c>
       <c r="AF26" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>CHECK</v>
       </c>
       <c r="AG26" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>CHECK</v>
       </c>
-      <c r="AH26" s="58" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH26" s="48" t="str">
+        <f t="shared" si="17"/>
         <v>CHECK</v>
       </c>
-      <c r="AI26" s="61" t="str">
-        <f t="shared" si="7"/>
-        <v>OK</v>
-      </c>
-      <c r="AJ26" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AI26" s="51" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="AJ26" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK26" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>CHECK</v>
       </c>
     </row>
@@ -8189,83 +8056,83 @@
         <v>21</v>
       </c>
       <c r="Q27" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="18">
-        <f>B33-B13</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="18">
-        <f>C33-C13</f>
-        <v>0</v>
-      </c>
       <c r="T27" s="34">
-        <f>D33-D13</f>
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="U27" s="18">
-        <f>E33-E13</f>
+        <f t="shared" si="3"/>
         <v>-1.4400000000000004</v>
       </c>
       <c r="V27" s="18" t="e">
-        <f>F33-F13</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W27" s="18">
-        <f>G33-G13</f>
+        <f t="shared" si="5"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="X27" s="18">
-        <f>H33-H13</f>
+        <f t="shared" si="6"/>
         <v>5.1428571428570713E-2</v>
       </c>
       <c r="Y27" s="18">
-        <f>I33-I13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z27" s="18">
-        <f>J33-J13</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA27" s="18">
-        <f>K33-K13</f>
+        <f t="shared" si="9"/>
         <v>-2.4747377131263404E-2</v>
       </c>
       <c r="AB27" s="32">
-        <f>L33-L13</f>
+        <f t="shared" si="10"/>
         <v>0.10604539488918641</v>
       </c>
       <c r="AD27" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE27" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF27" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG27" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH27" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI27" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH27" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI27" s="51" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ27" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ27" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK27" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -8313,83 +8180,83 @@
         <v>22</v>
       </c>
       <c r="Q28" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="18">
-        <f>B34-B14</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="18">
-        <f>C34-C14</f>
-        <v>0</v>
-      </c>
       <c r="T28" s="13">
-        <f>D34-D14</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="U28" s="18">
-        <f>E34-E14</f>
+        <f t="shared" si="3"/>
         <v>-1.38</v>
       </c>
       <c r="V28" s="18" t="e">
-        <f>F34-F14</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W28" s="18">
-        <f>G34-G14</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="X28" s="18">
-        <f>H34-H14</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Y28" s="18">
-        <f>I34-I14</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z28" s="18">
-        <f>J34-J14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA28" s="18">
-        <f>K34-K14</f>
+        <f t="shared" si="9"/>
         <v>-7.1886665250495696E-3</v>
       </c>
       <c r="AB28" s="32">
-        <f>L34-L14</f>
+        <f t="shared" si="10"/>
         <v>1.9308122501880076E-2</v>
       </c>
       <c r="AD28" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE28" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF28" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG28" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH28" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI28" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH28" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI28" s="51" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ28" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ28" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK28" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -8437,83 +8304,83 @@
         <v>2022</v>
       </c>
       <c r="Q29" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="17">
-        <f>B35-B15</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="17">
-        <f>C35-C15</f>
-        <v>0</v>
-      </c>
       <c r="T29" s="4">
-        <f>D35-D15</f>
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="U29" s="17">
-        <f>E35-E15</f>
+        <f t="shared" si="3"/>
         <v>-1.38</v>
       </c>
       <c r="V29" s="17" t="e">
-        <f>F35-F15</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W29" s="17">
-        <f>G35-G15</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="X29" s="17">
-        <f>H35-H15</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Y29" s="17">
-        <f>I35-I15</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z29" s="17">
-        <f>J35-J15</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA29" s="17">
-        <f>K35-K15</f>
+        <f t="shared" si="9"/>
         <v>-2.9019944638701833E-3</v>
       </c>
       <c r="AB29" s="30">
-        <f>L35-L15</f>
+        <f t="shared" si="10"/>
         <v>1.9675668568854388E-2</v>
       </c>
       <c r="AD29" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE29" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF29" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG29" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH29" s="57" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI29" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH29" s="47" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI29" s="50" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ29" s="60" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ29" s="50" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK29" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -8561,83 +8428,83 @@
         <v>23</v>
       </c>
       <c r="Q30" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="18">
-        <f>B36-B16</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="18">
-        <f>C36-C16</f>
-        <v>0</v>
-      </c>
       <c r="T30" s="35">
-        <f>D36-D16</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="U30" s="18">
-        <f>E36-E16</f>
+        <f t="shared" si="3"/>
         <v>-1.2049999999999996</v>
       </c>
       <c r="V30" s="18" t="e">
-        <f>F36-F16</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W30" s="18">
-        <f>G36-G16</f>
+        <f t="shared" si="5"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="X30" s="18">
-        <f>H36-H16</f>
+        <f t="shared" si="6"/>
         <v>6.0000000000000497E-2</v>
       </c>
       <c r="Y30" s="18">
-        <f>I36-I16</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z30" s="18">
-        <f>J36-J16</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA30" s="18">
-        <f>K36-K16</f>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB30" s="32">
-        <f>L36-L16</f>
+        <f t="shared" si="10"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AD30" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE30" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF30" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG30" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH30" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI30" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH30" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI30" s="51" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ30" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ30" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK30" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -8685,83 +8552,83 @@
         <v>24</v>
       </c>
       <c r="Q31" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="18">
-        <f>B37-B17</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="18">
-        <f>C37-C17</f>
-        <v>0</v>
-      </c>
       <c r="T31" s="34">
-        <f>D37-D17</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="U31" s="18">
-        <f>E37-E17</f>
+        <f t="shared" si="3"/>
         <v>-0.98</v>
       </c>
       <c r="V31" s="18" t="e">
-        <f>F37-F17</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W31" s="18">
-        <f>G37-G17</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="X31" s="18">
-        <f>H37-H17</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Y31" s="18">
-        <f>I37-I17</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z31" s="18">
-        <f>J37-J17</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA31" s="18">
-        <f>K37-K17</f>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB31" s="32">
-        <f>L37-L17</f>
+        <f t="shared" si="10"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AD31" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE31" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF31" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG31" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH31" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI31" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH31" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI31" s="51" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ31" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ31" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK31" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -8809,83 +8676,83 @@
         <v>27</v>
       </c>
       <c r="Q32" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="18">
-        <f>B38-B18</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="18">
-        <f>C38-C18</f>
-        <v>0</v>
-      </c>
       <c r="T32" s="34">
-        <f>D38-D18</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="U32" s="18">
-        <f>E38-E18</f>
+        <f t="shared" si="3"/>
         <v>-0.70999999999999952</v>
       </c>
       <c r="V32" s="18" t="e">
-        <f>F38-F18</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W32" s="18">
-        <f>G38-G18</f>
+        <f t="shared" si="5"/>
         <v>2.0000000000000462E-2</v>
       </c>
       <c r="X32" s="18">
-        <f>H38-H18</f>
+        <f t="shared" si="6"/>
         <v>1.7142857142856016E-2</v>
       </c>
       <c r="Y32" s="18">
-        <f>I38-I18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z32" s="18">
-        <f>J38-J18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA32" s="18">
-        <f>K38-K18</f>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB32" s="32">
-        <f>L38-L18</f>
+        <f t="shared" si="10"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AD32" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE32" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF32" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG32" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH32" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI32" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH32" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI32" s="51" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ32" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ32" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK32" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -8933,83 +8800,83 @@
         <v>28</v>
       </c>
       <c r="Q33" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R33" s="18">
-        <f>B39-B19</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="18">
-        <f>C39-C19</f>
-        <v>0</v>
-      </c>
       <c r="T33" s="13">
-        <f>D39-D19</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="U33" s="33">
-        <f>E39-E19</f>
+        <f t="shared" si="3"/>
         <v>-0.49000000000000021</v>
       </c>
       <c r="V33" s="18" t="e">
-        <f>F39-F19</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W33" s="33">
-        <f>G39-G19</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000675E-2</v>
       </c>
       <c r="X33" s="18">
-        <f>H39-H19</f>
+        <f t="shared" si="6"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="Y33" s="18">
-        <f>I39-I19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z33" s="18">
-        <f>J39-J19</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA33" s="18">
-        <f>K39-K19</f>
+        <f t="shared" si="9"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AB33" s="32">
-        <f>L39-L19</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD33" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE33" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>OK</v>
       </c>
       <c r="AF33" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="AG33" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH33" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI33" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH33" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI33" s="51" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ33" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ33" s="51" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK33" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -9057,83 +8924,83 @@
         <v>2023</v>
       </c>
       <c r="Q34" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="37">
-        <f>B40-B20</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="37">
-        <f>C40-C20</f>
-        <v>0</v>
-      </c>
       <c r="T34" s="38">
-        <f>D40-D20</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="U34" s="37">
-        <f>E40-E20</f>
+        <f t="shared" si="3"/>
         <v>-0.49000000000000021</v>
       </c>
       <c r="V34" s="37" t="e">
-        <f>F40-F20</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W34" s="37">
-        <f>G40-G20</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999361E-2</v>
       </c>
       <c r="X34" s="37">
-        <f>H40-H20</f>
+        <f t="shared" si="6"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="Y34" s="37">
-        <f>I40-I20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z34" s="37">
-        <f>J40-J20</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA34" s="37">
-        <f>K40-K20</f>
+        <f t="shared" si="9"/>
         <v>-1.7500000000000071E-2</v>
       </c>
       <c r="AB34" s="39">
-        <f>L40-L20</f>
+        <f t="shared" si="10"/>
         <v>3.2499999999999973E-2</v>
       </c>
       <c r="AD34" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="AE34" s="27" t="str">
-        <f t="shared" ref="AE34" si="9">IF(AND(W34=0,AA34=0),"OK",IF(AND(W34&lt;0,AA34&gt;0),"OK",IF(AND(W34&gt;0,AA34&lt;0),"OK","CHECK")))</f>
+        <f t="shared" ref="AE34" si="20">IF(AND(W34=0,AA34=0),"OK",IF(AND(W34&lt;0,AA34&gt;0),"OK",IF(AND(W34&gt;0,AA34&lt;0),"OK","CHECK")))</f>
         <v>OK</v>
       </c>
       <c r="AF34" s="27" t="str">
-        <f t="shared" ref="AF34" si="10">IF(AND(U34&gt;=0,T34&gt;=0),"OK",IF(AND(U34&lt;0,T34&lt;0),"OK","CHECK"))</f>
+        <f t="shared" ref="AF34" si="21">IF(AND(U34&gt;=0,T34&gt;=0),"OK",IF(AND(U34&lt;0,T34&lt;0),"OK","CHECK"))</f>
         <v>OK</v>
       </c>
       <c r="AG34" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AH34" s="59" t="str">
-        <f t="shared" si="6"/>
-        <v>OK</v>
-      </c>
-      <c r="AI34" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="AH34" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+      <c r="AI34" s="50" t="str">
+        <f t="shared" si="18"/>
         <v>CHECK</v>
       </c>
-      <c r="AJ34" s="60" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ34" s="50" t="str">
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="AK34" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>OK</v>
       </c>
     </row>
@@ -9259,6 +9126,12 @@
       <c r="N37" s="9">
         <v>0</v>
       </c>
+      <c r="T37" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:37" ht="16.7" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
@@ -9300,6 +9173,12 @@
       <c r="N38" s="9">
         <v>0</v>
       </c>
+      <c r="T38" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:37" ht="16.7" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
@@ -9341,6 +9220,12 @@
       <c r="N39" s="12">
         <v>0</v>
       </c>
+      <c r="T39" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:37" ht="16.7" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
@@ -9381,6 +9266,20 @@
       </c>
       <c r="N40" s="3">
         <v>0</v>
+      </c>
+      <c r="T40" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="T41" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W41" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -9398,242 +9297,242 @@
     <mergeCell ref="Q17:AB17"/>
   </mergeCells>
   <conditionalFormatting sqref="AD20:AD22">
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="79" priority="101">
       <formula>AD20="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="78" priority="102">
       <formula>AD20="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25:AD27">
-    <cfRule type="expression" dxfId="97" priority="99">
+    <cfRule type="expression" dxfId="77" priority="99">
       <formula>AD25="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="100">
+    <cfRule type="expression" dxfId="76" priority="100">
       <formula>AD25="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD30:AD32">
-    <cfRule type="expression" dxfId="95" priority="97">
+    <cfRule type="expression" dxfId="75" priority="97">
       <formula>AD30="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98">
+    <cfRule type="expression" dxfId="74" priority="98">
       <formula>AD30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE25:AE27">
-    <cfRule type="expression" dxfId="93" priority="95">
+    <cfRule type="expression" dxfId="73" priority="95">
       <formula>AE25="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="96">
+    <cfRule type="expression" dxfId="72" priority="96">
       <formula>AE25="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30:AE32">
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="71" priority="93">
       <formula>AE30="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="70" priority="94">
       <formula>AE30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AE22">
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="69" priority="91">
       <formula>AE20="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92">
+    <cfRule type="expression" dxfId="68" priority="92">
       <formula>AE20="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28">
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="67" priority="89">
       <formula>AD28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="90">
+    <cfRule type="expression" dxfId="66" priority="90">
       <formula>AD28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
-    <cfRule type="expression" dxfId="85" priority="87">
+    <cfRule type="expression" dxfId="65" priority="87">
       <formula>AE28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="88">
+    <cfRule type="expression" dxfId="64" priority="88">
       <formula>AE28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23">
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="63" priority="85">
       <formula>AD23="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="62" priority="86">
       <formula>AD23="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23">
-    <cfRule type="expression" dxfId="81" priority="83">
+    <cfRule type="expression" dxfId="61" priority="83">
       <formula>AE23="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="84">
+    <cfRule type="expression" dxfId="60" priority="84">
       <formula>AE23="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20:AF23">
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="59" priority="81">
       <formula>AF20="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="82">
+    <cfRule type="expression" dxfId="58" priority="82">
       <formula>AF20="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AF28">
-    <cfRule type="expression" dxfId="77" priority="79">
+    <cfRule type="expression" dxfId="57" priority="79">
       <formula>AF25="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="80">
+    <cfRule type="expression" dxfId="56" priority="80">
       <formula>AF25="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30:AF32">
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="55" priority="77">
       <formula>AF30="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="54" priority="78">
       <formula>AF30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33">
-    <cfRule type="expression" dxfId="73" priority="75">
+    <cfRule type="expression" dxfId="53" priority="75">
       <formula>AD33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="76">
+    <cfRule type="expression" dxfId="52" priority="76">
       <formula>AD33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33">
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="51" priority="73">
       <formula>AE33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="74">
+    <cfRule type="expression" dxfId="50" priority="74">
       <formula>AE33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33">
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>AF33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>AF33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20:AG23">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="47" priority="67">
       <formula>AG20="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="46" priority="68">
       <formula>AG20="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG28">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="45" priority="65">
       <formula>AG25="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
+    <cfRule type="expression" dxfId="44" priority="66">
       <formula>AG25="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AG32">
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>AG30="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="42" priority="64">
       <formula>AG30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>AG33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>AG33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AH23">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="39" priority="59">
       <formula>AH20="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>AH20="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH25:AH28">
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="37" priority="57">
       <formula>AH25="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="36" priority="58">
       <formula>AH25="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH30:AH32">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="35" priority="55">
       <formula>AH30="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="34" priority="56">
       <formula>AH30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33">
-    <cfRule type="expression" dxfId="53" priority="53">
+    <cfRule type="expression" dxfId="33" priority="53">
       <formula>AH33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="32" priority="54">
       <formula>AH33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI27">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>AI25="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="30" priority="44">
       <formula>AI25="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI30:AI32">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>AI30="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>AI30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20:AI22">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>AI20="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>AI20="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI28">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>AI28="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>AI28="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI23">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>AI23="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>AI23="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI33">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>AI33="CHECK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>AI33="OK"</formula>
     </cfRule>
   </conditionalFormatting>
